--- a/output/zaluski/2021/sheets/year_2021.xlsx
+++ b/output/zaluski/2021/sheets/year_2021.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>61.89032258064518</v>
+        <v>62.44634380901881</v>
       </c>
       <c r="C2" t="n">
-        <v>55.06774193548386</v>
+        <v>56.87349903623898</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>60.68928571428572</v>
+        <v>61.24199957407984</v>
       </c>
       <c r="C3" t="n">
-        <v>47.97142857142858</v>
+        <v>55.86950447875968</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>60.95161290322581</v>
+        <v>61.26836164412373</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30645161290323</v>
+        <v>54.24014073076303</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>53.68666666666667</v>
+        <v>62.15088008276538</v>
       </c>
       <c r="C5" t="n">
-        <v>38.35333333333334</v>
+        <v>56.65170219271993</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>57.35806451612903</v>
+        <v>63.77291971752962</v>
       </c>
       <c r="C6" t="n">
-        <v>47.55483870967741</v>
+        <v>57.87553971846236</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>63.85333333333332</v>
+        <v>65.50478993796068</v>
       </c>
       <c r="C7" t="n">
-        <v>55.87</v>
+        <v>58.90031050811107</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>67.09677419354838</v>
+        <v>67.18821159399404</v>
       </c>
       <c r="C8" t="n">
-        <v>60.19354838709677</v>
+        <v>60.76626657120963</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>67.36774193548388</v>
+        <v>67.47509712859488</v>
       </c>
       <c r="C9" t="n">
-        <v>60.50645161290323</v>
+        <v>61.11946650620248</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>67.33666666666666</v>
+        <v>67.46235777581509</v>
       </c>
       <c r="C10" t="n">
-        <v>60.62333333333333</v>
+        <v>61.02505424882046</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>65.88387096774194</v>
+        <v>67.16649385190068</v>
       </c>
       <c r="C11" t="n">
-        <v>58.43225806451612</v>
+        <v>60.93901052396173</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>66.09999999999999</v>
+        <v>66.36875198334971</v>
       </c>
       <c r="C12" t="n">
-        <v>58.98</v>
+        <v>59.43394041027295</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>65.26774193548387</v>
+        <v>65.82657992805839</v>
       </c>
       <c r="C13" t="n">
-        <v>56.75806451612904</v>
+        <v>59.66660197615411</v>
       </c>
     </row>
   </sheetData>
